--- a/심영섭/엑셀데이터_TO_DB데이터변환작업/INPUTOUTPUT/가전INPUT.xlsx
+++ b/심영섭/엑셀데이터_TO_DB데이터변환작업/INPUTOUTPUT/가전INPUT.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD8F7943-5EE1-4B5D-87CA-8AA55F1565D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SungWoo\Desktop\GitHub\-ERP-System\심영섭\엑셀데이터_TO_DB데이터변환작업\INPUTOUTPUT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C48A8D-B9FC-44DE-A2F4-730BF4D29356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -320,10 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">AF1004D </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NWA201</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -659,9 +658,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F21VDD </t>
-  </si>
-  <si>
     <t>F21VDAM</t>
   </si>
   <si>
@@ -883,13 +879,21 @@
   </si>
   <si>
     <t>V8</t>
+  </si>
+  <si>
+    <t>F21VDD</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF1004D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,7 +911,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="돋움"/>
+      <name val="맑은 고딕"/>
       <charset val="129"/>
       <scheme val="major"/>
     </font>
@@ -921,7 +925,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -929,7 +933,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1028,7 +1039,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1326,18 +1337,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1365,7 +1376,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1379,7 +1390,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1393,7 +1404,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1407,7 +1418,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33">
+    <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1421,7 +1432,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33">
+    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1435,7 +1446,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1449,7 +1460,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33">
+    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1463,7 +1474,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1477,7 +1488,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="33">
+    <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1491,7 +1502,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="33">
+    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1505,7 +1516,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="33">
+    <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1519,7 +1530,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="33">
+    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1533,7 +1544,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1547,7 +1558,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="33">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1561,7 +1572,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33">
+    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1575,7 +1586,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="33">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1589,7 +1600,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="33">
+    <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1603,7 +1614,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="33">
+    <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1617,7 +1628,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1631,7 +1642,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1645,7 +1656,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1659,7 +1670,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1673,7 +1684,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1687,7 +1698,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1701,7 +1712,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1715,7 +1726,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1729,7 +1740,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1743,7 +1754,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1757,7 +1768,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="33">
+    <row r="31" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1771,7 +1782,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="33">
+    <row r="32" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1785,7 +1796,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="33">
+    <row r="33" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1799,7 +1810,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="33">
+    <row r="34" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1813,7 +1824,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="33">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1827,7 +1838,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="33">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1841,7 +1852,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="33">
+    <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1855,7 +1866,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1869,7 +1880,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1883,7 +1894,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1897,7 +1908,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1911,7 +1922,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1925,7 +1936,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1939,7 +1950,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1953,7 +1964,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1967,7 +1978,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1981,7 +1992,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1995,7 +2006,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2009,7 +2020,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2023,7 +2034,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2037,7 +2048,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2051,7 +2062,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2065,7 +2076,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2079,7 +2090,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2093,7 +2104,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2107,7 +2118,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2121,7 +2132,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2135,7 +2146,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2149,7 +2160,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2163,7 +2174,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2177,7 +2188,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2191,7 +2202,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2205,7 +2216,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2219,7 +2230,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2233,7 +2244,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2247,7 +2258,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2261,7 +2272,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2275,7 +2286,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2289,7 +2300,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2303,7 +2314,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2317,7 +2328,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2331,12 +2342,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="C72" s="9">
         <v>43800</v>
@@ -2345,12 +2356,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73" s="9">
         <v>43831</v>
@@ -2359,12 +2370,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" s="9">
         <v>43862</v>
@@ -2373,12 +2384,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" s="9">
         <v>43891</v>
@@ -2387,12 +2398,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" s="9">
         <v>43922</v>
@@ -2401,12 +2412,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77" s="9">
         <v>43952</v>
@@ -2415,12 +2426,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78" s="9">
         <v>43983</v>
@@ -2429,12 +2440,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79" s="9">
         <v>44013</v>
@@ -2443,12 +2454,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" s="9">
         <v>44044</v>
@@ -2457,12 +2468,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C81" s="9">
         <v>44075</v>
@@ -2471,12 +2482,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C82" s="9">
         <v>44105</v>
@@ -2485,12 +2496,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C83" s="9">
         <v>44136</v>
@@ -2499,12 +2510,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C84" s="9">
         <v>44166</v>
@@ -2513,12 +2524,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C85" s="9">
         <v>44197</v>
@@ -2527,12 +2538,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86" s="9">
         <v>44228</v>
@@ -2541,12 +2552,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87" s="9">
         <v>44256</v>
@@ -2555,12 +2566,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C88" s="9">
         <v>44287</v>
@@ -2569,12 +2580,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89" s="9">
         <v>44317</v>
@@ -2583,12 +2594,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="9">
         <v>44348</v>
@@ -2597,12 +2608,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C91" s="9">
         <v>44378</v>
@@ -2611,12 +2622,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C92" s="9">
         <v>44409</v>
@@ -2625,12 +2636,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C93" s="9">
         <v>44440</v>
@@ -2639,12 +2650,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C94" s="9">
         <v>44470</v>
@@ -2653,12 +2664,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C95" s="9">
         <v>44501</v>
@@ -2667,12 +2678,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C96" s="9">
         <v>44531</v>
@@ -2681,12 +2692,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C97" s="9">
         <v>43586</v>
@@ -2695,12 +2706,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C98" s="9">
         <v>43617</v>
@@ -2709,12 +2720,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C99" s="9">
         <v>43525</v>
@@ -2723,12 +2734,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C100" s="9">
         <v>43556</v>
@@ -2737,12 +2748,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C101" s="9">
         <v>43586</v>
@@ -2751,12 +2762,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C102" s="9">
         <v>44256</v>
@@ -2765,12 +2776,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C103" s="9">
         <v>44287</v>
@@ -2779,12 +2790,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C104" s="9">
         <v>44317</v>
@@ -2793,12 +2804,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C105" s="9">
         <v>44348</v>
@@ -2807,12 +2818,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C106" s="9">
         <v>44378</v>
@@ -2821,12 +2832,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C107" s="9">
         <v>43525</v>
@@ -2835,12 +2846,12 @@
         <v>780</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C108" s="9">
         <v>43556</v>
@@ -2849,12 +2860,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109" s="9">
         <v>43586</v>
@@ -2863,12 +2874,12 @@
         <v>780</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C110" s="9">
         <v>43617</v>
@@ -2877,12 +2888,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C111" s="9">
         <v>43647</v>
@@ -2891,12 +2902,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C112" s="9">
         <v>43678</v>
@@ -2905,12 +2916,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C113" s="9">
         <v>43709</v>
@@ -2919,12 +2930,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C114" s="9">
         <v>43739</v>
@@ -2933,12 +2944,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C115" s="9">
         <v>43770</v>
@@ -2947,12 +2958,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C116" s="9">
         <v>43800</v>
@@ -2961,12 +2972,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C117" s="9">
         <v>43831</v>
@@ -2975,12 +2986,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C118" s="9">
         <v>43862</v>
@@ -2989,12 +3000,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C119" s="9">
         <v>43891</v>
@@ -3003,12 +3014,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C120" s="9">
         <v>43922</v>
@@ -3017,12 +3028,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C121" s="9">
         <v>43952</v>
@@ -3031,12 +3042,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C122" s="9">
         <v>43983</v>
@@ -3045,12 +3056,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C123" s="9">
         <v>44013</v>
@@ -3059,12 +3070,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C124" s="9">
         <v>44044</v>
@@ -3073,12 +3084,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C125" s="9">
         <v>44075</v>
@@ -3087,12 +3098,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C126" s="9">
         <v>44105</v>
@@ -3101,12 +3112,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C127" s="9">
         <v>44136</v>
@@ -3115,12 +3126,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C128" s="9">
         <v>44166</v>
@@ -3129,12 +3140,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C129" s="9">
         <v>44197</v>
@@ -3143,12 +3154,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C130" s="9">
         <v>44228</v>
@@ -3157,12 +3168,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C131" s="9">
         <v>44256</v>
@@ -3171,12 +3182,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C132" s="9">
         <v>44287</v>
@@ -3185,12 +3196,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C133" s="9">
         <v>44317</v>
@@ -3199,12 +3210,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C134" s="9">
         <v>44348</v>
@@ -3213,12 +3224,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C135" s="9">
         <v>44378</v>
@@ -3227,12 +3238,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C136" s="9">
         <v>44409</v>
@@ -3241,12 +3252,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C137" s="9">
         <v>44440</v>
@@ -3255,12 +3266,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C138" s="9">
         <v>44470</v>
@@ -3269,12 +3280,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C139" s="9">
         <v>43466</v>
@@ -3283,12 +3294,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C140" s="9">
         <v>43497</v>
@@ -3297,12 +3308,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="24">
+    <row r="141" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C141" s="9">
         <v>43525</v>
@@ -3311,12 +3322,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C142" s="9">
         <v>43556</v>
@@ -3325,12 +3336,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C143" s="9">
         <v>43586</v>
@@ -3339,12 +3350,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C144" s="9">
         <v>43617</v>
@@ -3353,12 +3364,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C145" s="9">
         <v>43647</v>
@@ -3367,12 +3378,12 @@
         <v>980</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C146" s="9">
         <v>43678</v>
@@ -3381,12 +3392,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C147" s="9">
         <v>43709</v>
@@ -3395,12 +3406,12 @@
         <v>980</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C148" s="9">
         <v>43739</v>
@@ -3409,12 +3420,12 @@
         <v>780</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C149" s="9">
         <v>43770</v>
@@ -3423,12 +3434,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C150" s="9">
         <v>43800</v>
@@ -3437,12 +3448,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C151" s="9">
         <v>43831</v>
@@ -3451,12 +3462,12 @@
         <v>980</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C152" s="9">
         <v>43862</v>
@@ -3465,12 +3476,12 @@
         <v>780</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C153" s="9">
         <v>43891</v>
@@ -3479,12 +3490,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C154" s="9">
         <v>43922</v>
@@ -3493,12 +3504,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C155" s="9">
         <v>43952</v>
@@ -3507,12 +3518,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C156" s="9">
         <v>43983</v>
@@ -3521,12 +3532,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C157" s="9">
         <v>44013</v>
@@ -3535,12 +3546,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C158" s="9">
         <v>44044</v>
@@ -3549,12 +3560,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C159" s="9">
         <v>44075</v>
@@ -3563,12 +3574,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C160" s="9">
         <v>44105</v>
@@ -3577,12 +3588,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C161" s="9">
         <v>44136</v>
@@ -3591,12 +3602,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C162" s="9">
         <v>44166</v>
@@ -3605,12 +3616,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C163" s="9">
         <v>44197</v>
@@ -3619,12 +3630,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C164" s="9">
         <v>44228</v>
@@ -3633,12 +3644,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C165" s="9">
         <v>44256</v>
@@ -3647,12 +3658,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C166" s="9">
         <v>44287</v>
@@ -3661,12 +3672,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C167" s="9">
         <v>44317</v>
@@ -3675,12 +3686,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C168" s="9">
         <v>44348</v>
@@ -3689,12 +3700,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C169" s="9">
         <v>44378</v>
@@ -3703,12 +3714,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C170" s="9">
         <v>44409</v>
@@ -3717,12 +3728,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C171" s="9">
         <v>44440</v>
@@ -3731,12 +3742,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C172" s="9">
         <v>44470</v>
@@ -3745,12 +3756,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C173" s="9">
         <v>44501</v>
@@ -3759,12 +3770,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C174" s="9">
         <v>44531</v>
@@ -3773,12 +3784,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C175" s="9">
         <v>44256</v>
@@ -3787,12 +3798,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="C176" s="9">
         <v>44287</v>
@@ -3801,12 +3812,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C177" s="9">
         <v>44317</v>
@@ -3815,12 +3826,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C178" s="9">
         <v>44348</v>
@@ -3829,12 +3840,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C179" s="9">
         <v>44378</v>
@@ -3843,12 +3854,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C180" s="9">
         <v>44256</v>
@@ -3857,12 +3868,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C181" s="9">
         <v>44287</v>
@@ -3871,12 +3882,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C182" s="9">
         <v>44317</v>
@@ -3885,12 +3896,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C183" s="9">
         <v>44348</v>
@@ -3899,12 +3910,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C184" s="9">
         <v>44378</v>
@@ -3913,12 +3924,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C185" s="9">
         <v>43525</v>
@@ -3927,12 +3938,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C186" s="9">
         <v>43556</v>
@@ -3941,12 +3952,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C187" s="9">
         <v>43586</v>
@@ -3955,12 +3966,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C188" s="9">
         <v>43617</v>
@@ -3969,12 +3980,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C189" s="9">
         <v>43647</v>
@@ -3983,12 +3994,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C190" s="9">
         <v>43678</v>
@@ -3997,12 +4008,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C191" s="9">
         <v>43709</v>
@@ -4011,12 +4022,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C192" s="9">
         <v>43739</v>
@@ -4025,12 +4036,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C193" s="9">
         <v>43770</v>
@@ -4039,12 +4050,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C194" s="9">
         <v>43800</v>
@@ -4053,12 +4064,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C195" s="9">
         <v>43831</v>
@@ -4067,12 +4078,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C196" s="9">
         <v>43862</v>
@@ -4081,12 +4092,12 @@
         <v>780</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C197" s="9">
         <v>43891</v>
@@ -4095,12 +4106,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C198" s="9">
         <v>43922</v>
@@ -4109,12 +4120,12 @@
         <v>780</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C199" s="9">
         <v>43952</v>
@@ -4123,12 +4134,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C200" s="9">
         <v>43983</v>
@@ -4137,12 +4148,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C201" s="9">
         <v>44013</v>
@@ -4151,12 +4162,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C202" s="9">
         <v>44044</v>
@@ -4165,12 +4176,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C203" s="9">
         <v>44075</v>
@@ -4179,12 +4190,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C204" s="9">
         <v>44105</v>
@@ -4193,12 +4204,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C205" s="9">
         <v>44136</v>
@@ -4207,12 +4218,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C206" s="9">
         <v>44166</v>
@@ -4221,12 +4232,12 @@
         <v>980</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C207" s="9">
         <v>44197</v>
@@ -4235,12 +4246,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C208" s="9">
         <v>44228</v>
@@ -4249,12 +4260,12 @@
         <v>980</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C209" s="9">
         <v>44256</v>
@@ -4263,12 +4274,12 @@
         <v>780</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C210" s="9">
         <v>44287</v>
@@ -4277,12 +4288,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="24">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C211" s="9">
         <v>44317</v>
@@ -4291,12 +4302,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C212" s="9">
         <v>44348</v>
@@ -4305,12 +4316,12 @@
         <v>980</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="24">
+    <row r="213" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C213" s="9">
         <v>44378</v>
@@ -4319,12 +4330,12 @@
         <v>780</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C214" s="9">
         <v>44409</v>
@@ -4333,12 +4344,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C215" s="9">
         <v>44440</v>
@@ -4347,12 +4358,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C216" s="9">
         <v>44470</v>
@@ -4361,12 +4372,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C217" s="9">
         <v>43466</v>
@@ -4375,12 +4386,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C218" s="9">
         <v>43497</v>
@@ -4389,12 +4400,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C219" s="9">
         <v>43525</v>
@@ -4403,12 +4414,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C220" s="9">
         <v>43556</v>
@@ -4417,12 +4428,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C221" s="9">
         <v>43586</v>
@@ -4431,12 +4442,12 @@
         <v>780</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C222" s="9">
         <v>43617</v>
@@ -4445,12 +4456,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C223" s="9">
         <v>43647</v>
@@ -4459,12 +4470,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C224" s="9">
         <v>43678</v>
@@ -4473,12 +4484,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C225" s="9">
         <v>43709</v>
@@ -4487,12 +4498,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C226" s="9">
         <v>43739</v>
@@ -4501,12 +4512,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C227" s="9">
         <v>43770</v>
@@ -4515,12 +4526,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C228" s="9">
         <v>43800</v>
@@ -4529,12 +4540,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C229" s="9">
         <v>43831</v>
@@ -4543,12 +4554,12 @@
         <v>980</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C230" s="9">
         <v>43862</v>
@@ -4557,12 +4568,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C231" s="9">
         <v>43891</v>
@@ -4571,12 +4582,12 @@
         <v>980</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C232" s="9">
         <v>43922</v>
@@ -4585,12 +4596,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C233" s="9">
         <v>43952</v>
@@ -4599,12 +4610,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C234" s="9">
         <v>43983</v>
@@ -4613,12 +4624,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C235" s="9">
         <v>44013</v>
@@ -4627,12 +4638,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C236" s="9">
         <v>44044</v>
@@ -4641,12 +4652,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C237" s="9">
         <v>44075</v>
@@ -4655,12 +4666,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C238" s="9">
         <v>44105</v>
@@ -4669,12 +4680,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C239" s="9">
         <v>44136</v>
@@ -4683,12 +4694,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C240" s="9">
         <v>44166</v>
@@ -4697,12 +4708,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C241" s="9">
         <v>44197</v>
@@ -4711,12 +4722,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C242" s="9">
         <v>44228</v>
@@ -4725,12 +4736,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C243" s="9">
         <v>44256</v>
@@ -4739,12 +4750,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C244" s="9">
         <v>44287</v>
@@ -4753,12 +4764,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C245" s="9">
         <v>44317</v>
@@ -4767,12 +4778,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C246" s="9">
         <v>44348</v>
@@ -4782,6 +4793,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>